--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>110009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>易方达价值精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.33</t>
+          <t>35.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009419</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈祥明一年定期开放混合A</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009420</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈祥明一年定期开放混合C</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008311</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰优选价值混合A</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008312</t>
+          <t>010181</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰优选价值混合C</t>
+          <t>兴业优势产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010181</t>
+          <t>008311</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业优势产业混合A</t>
+          <t>圆信永丰优选价值混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.96</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010182</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业优势产业混合C</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>69.96</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.91</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>009419</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>宝盈祥明一年定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360005</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大保德信红利混合</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>003582</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>中金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>010182</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>兴业优势产业混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003582</t>
+          <t>008312</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金量化多策略灵活配置混合</t>
+          <t>圆信永丰优选价值混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>009420</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>宝盈祥明一年定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>110009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>易方达价值精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005489</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合A</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>000471</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合C</t>
+          <t>富国城镇发展股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000471</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国城镇发展股票</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>78.43</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>008311</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>圆信永丰优选价值混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>005489</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>中金衡优灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008311</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>圆信永丰优选价值混合A</t>
+          <t>中金衡优灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1388,15 +1708,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>94.39</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2436,4 +2437,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3519,4 +3520,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.49</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.04</v>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3607,13 +3694,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5105,7 +5106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5116,17 +5117,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5136,14 +5157,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.63</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5152,14 +5195,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.49</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5168,14 +5233,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5184,14 +5271,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.04</v>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5200,13 +5309,885 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6070,7 +6071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6081,17 +6082,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6101,14 +6122,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.01</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6117,14 +6160,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.63</v>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6133,14 +6198,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.49</v>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6149,14 +6236,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6165,14 +6274,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.04</v>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6181,13 +6312,747 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>3.01</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>6.63</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>3.49</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>5.04</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.51</v>
       </c>
     </row>
@@ -600,6 +617,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1447,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2411,7 +3164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3987,7 +4740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5069,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5733,7 +6486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6435,7 +7188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
+++ b/数据整理/stocks/A股/创业板/300470-中密控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>3.01</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>6.63</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>3.49</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>5.04</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.51</v>
       </c>
     </row>
@@ -616,7 +633,1483 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +2845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2200,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3164,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4740,7 +6233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5822,7 +7315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6486,7 +7979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7186,630 +8679,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达价值精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008372</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国阿尔法两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7713</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5211</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000471</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国城镇发展股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5039</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010181</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3077</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008311</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰优选价值混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2985</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2725</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1640</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009419</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010182</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业优势产业混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008312</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>圆信永丰优选价值混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009420</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>